--- a/LaborShortage/pqselectionresult.xlsx
+++ b/LaborShortage/pqselectionresult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015E325-A1EC-495A-A1AF-FD30EA0C0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA420E2B-1529-4494-BC8F-414D59A276BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
+    <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result List" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="13">
   <si>
     <t>.</t>
   </si>
@@ -647,88 +647,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.31622054799999999</c:v>
+                  <c:v>0.35664229019999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2468254885</c:v>
+                  <c:v>0.26161757759999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1073115575</c:v>
+                  <c:v>0.29005203730000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65325793359999995</c:v>
+                  <c:v>0.73457667680000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44514631580000003</c:v>
+                  <c:v>0.59935241279999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47851026930000001</c:v>
+                  <c:v>0.90240193639999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47569288780000002</c:v>
+                  <c:v>0.55871521540000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30928763339999998</c:v>
+                  <c:v>0.34727503300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31708163299999997</c:v>
+                  <c:v>0.34083594560000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8437268520000001</c:v>
+                  <c:v>0.5052740174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4771130784</c:v>
+                  <c:v>0.46290242139999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7012854784</c:v>
+                  <c:v>0.50185547490000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57325987869999995</c:v>
+                  <c:v>0.75145849220000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50435472380000002</c:v>
+                  <c:v>0.64068856200000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3077975771</c:v>
+                  <c:v>0.5179119163</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70610914840000005</c:v>
+                  <c:v>0.74319879099999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34516215560000002</c:v>
+                  <c:v>0.38573610089999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61570688009999996</c:v>
+                  <c:v>0.59010519130000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59237288840000002</c:v>
+                  <c:v>0.82994058729999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56517946779999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59261109280000002</c:v>
+                  <c:v>0.55775383329999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3670672472</c:v>
+                  <c:v>0.43741125320000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.63897690689999997</c:v>
+                  <c:v>0.67220893989999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.37729403290000002</c:v>
+                  <c:v>0.6770429389</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.76435419689999995</c:v>
+                  <c:v>0.26907873269999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55230792299999998</c:v>
+                  <c:v>0.75387329179999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.82309676890000005</c:v>
+                  <c:v>0.3249622358</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57172621540000002</c:v>
+                  <c:v>0.35386794570000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21414,7 +21414,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21441,10 +21441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1073115575</v>
+        <v>0.26161757759999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -32435,7 +32435,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32497,16 +32497,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5.6566099999999996E-44</v>
+        <v>4.6121100000000004E-34</v>
       </c>
       <c r="E3">
-        <v>0.31622054799999999</v>
+        <v>0.35664229019999999</v>
       </c>
       <c r="F3" s="1">
-        <v>1.1910900000000001E-6</v>
+        <v>6.4179500000000001E-6</v>
       </c>
       <c r="G3" s="1">
-        <v>1.17536E-7</v>
+        <v>1.3944399999999999E-11</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -32538,16 +32538,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2.10888E-5</v>
+        <v>1.2269000000000001E-8</v>
       </c>
       <c r="E4">
-        <v>0.2468254885</v>
+        <v>0.26161757759999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.1693426827</v>
+        <v>8.1795309499999996E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>3.4606E-6</v>
+        <v>4.1372899999999997E-8</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -32578,17 +32578,17 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0.1416992802</v>
+      <c r="D5" s="1">
+        <v>1.0932699999999999E-24</v>
       </c>
       <c r="E5">
-        <v>0.1073115575</v>
+        <v>0.29005203730000001</v>
       </c>
       <c r="F5" s="1">
-        <v>0.74499904380000004</v>
+        <v>1.4304987999999999E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>1.4844099999999999E-8</v>
+        <v>5.4350934000000004E-3</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -32620,16 +32620,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2.495563E-4</v>
+        <v>7.726934E-4</v>
       </c>
       <c r="E6">
-        <v>0.65325793359999995</v>
+        <v>0.73457667680000005</v>
       </c>
       <c r="F6" s="1">
-        <v>4.3686187600000002E-2</v>
+        <v>5.970044E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>4.6088499999999997E-27</v>
+        <v>2.9257599999999999E-41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -32664,16 +32664,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>8.5560500000000001E-20</v>
+        <v>1.118422E-4</v>
       </c>
       <c r="E7">
-        <v>0.44514631580000003</v>
+        <v>0.59935241279999996</v>
       </c>
       <c r="F7" s="1">
-        <v>3.7409710000000003E-4</v>
+        <v>8.8514895999999996E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>1.8659098999999998E-2</v>
+        <v>9.4690509999999998E-4</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -32708,16 +32708,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>3.7700800000000002E-18</v>
+        <v>3.3007960699999998E-2</v>
       </c>
       <c r="E8">
-        <v>0.47851026930000001</v>
+        <v>0.90240193639999999</v>
       </c>
       <c r="F8" s="1">
-        <v>2.278166E-4</v>
+        <v>0.29561288530000002</v>
       </c>
       <c r="G8" s="1">
-        <v>3.00579474E-2</v>
+        <v>6.3680599999999997E-21</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -32752,16 +32752,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1295700000000002E-21</v>
+        <v>1.3392299999999999E-12</v>
       </c>
       <c r="E9">
-        <v>0.47569288780000002</v>
+        <v>0.55871521540000002</v>
       </c>
       <c r="F9" s="1">
-        <v>2.1260229999999999E-4</v>
+        <v>5.6757481E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>9.4528911899999998E-2</v>
+        <v>5.8461123400000002E-2</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -32796,19 +32796,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.02125E-16</v>
+        <v>1.6524700000000001E-14</v>
       </c>
       <c r="E10">
-        <v>0.30928763339999998</v>
+        <v>0.34727503300000001</v>
       </c>
       <c r="F10" s="1">
-        <v>4.2918601000000002E-3</v>
+        <v>3.8664461E-3</v>
       </c>
       <c r="G10" s="1">
-        <v>0.25118449999999998</v>
+        <v>0.3775880989</v>
       </c>
       <c r="H10">
-        <v>0.99459928949999998</v>
+        <v>0.92757978929999996</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -32840,19 +32840,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>3.2311899999999997E-39</v>
+        <v>0.87970058009999996</v>
       </c>
       <c r="E11">
-        <v>0.31708163299999997</v>
+        <v>0.34083594560000002</v>
       </c>
       <c r="F11" s="1">
-        <v>3.36355E-7</v>
+        <v>3.01947E-7</v>
       </c>
       <c r="G11">
-        <v>0.96826453420000003</v>
+        <v>0.80956238079999998</v>
       </c>
       <c r="H11">
-        <v>0.32159810439999997</v>
+        <v>0.43737036969999998</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -32884,19 +32884,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.98762720280000005</v>
+        <v>1.3096694799999999E-2</v>
       </c>
       <c r="E12">
-        <v>2.8437268520000001</v>
+        <v>0.5052740174</v>
       </c>
       <c r="F12" s="1">
-        <v>0.68869119680000002</v>
+        <v>0.20388350390000001</v>
       </c>
       <c r="G12">
-        <v>7.0901299999999998E-5</v>
+        <v>2.47047143E-2</v>
       </c>
       <c r="H12">
-        <v>4.0741262100000002E-2</v>
+        <v>0.18869086560000001</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -32928,19 +32928,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.71143893879999998</v>
+        <v>0.36622332169999999</v>
       </c>
       <c r="E13">
-        <v>0.4771130784</v>
+        <v>0.46290242139999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.68257340440000003</v>
+        <v>0.78353086679999995</v>
       </c>
       <c r="G13">
-        <v>0.60686997750000005</v>
+        <v>0.69461266200000005</v>
       </c>
       <c r="H13">
-        <v>0.8449026516</v>
+        <v>0.98719307730000005</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -32972,19 +32972,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>5.1043234000000002E-3</v>
+        <v>0.88266885799999995</v>
       </c>
       <c r="E14">
-        <v>0.7012854784</v>
+        <v>0.50185547490000004</v>
       </c>
       <c r="F14" s="1">
-        <v>0.14640811249999999</v>
+        <v>0.79073823460000003</v>
       </c>
       <c r="G14">
-        <v>0.92028747529999999</v>
+        <v>0.5003720921</v>
       </c>
       <c r="H14">
-        <v>0.51046282220000005</v>
+        <v>0.79759739799999996</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>4.7573670300000002E-2</v>
+        <v>7.2594128000000001E-3</v>
       </c>
       <c r="E15">
-        <v>0.57325987869999995</v>
+        <v>0.75145849220000005</v>
       </c>
       <c r="F15" s="1">
-        <v>0.26922080910000001</v>
+        <v>0.1424354296</v>
       </c>
       <c r="G15">
-        <v>0.99453477560000003</v>
+        <v>0.86367134369999998</v>
       </c>
       <c r="H15">
-        <v>0.1107202974</v>
+        <v>0.49782962089999999</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -33060,19 +33060,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>4.58434198E-2</v>
+        <v>0.35355036429999998</v>
       </c>
       <c r="E16">
-        <v>0.50435472380000002</v>
+        <v>0.64068856200000002</v>
       </c>
       <c r="F16" s="1">
-        <v>0.80702520929999999</v>
+        <v>0.81236794879999996</v>
       </c>
       <c r="G16">
-        <v>0.97284761710000001</v>
+        <v>0.80251463249999999</v>
       </c>
       <c r="H16">
-        <v>0.62726592699999995</v>
+        <v>0.74718585479999999</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -33104,22 +33104,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.13362316199999999</v>
+        <v>0.93989214109999997</v>
       </c>
       <c r="E17">
-        <v>0.3077975771</v>
+        <v>0.5179119163</v>
       </c>
       <c r="F17" s="1">
-        <v>2.8500655999999999E-3</v>
+        <v>2.3620351099999999E-2</v>
       </c>
       <c r="G17">
-        <v>0.23070736789999999</v>
+        <v>0.46115813979999998</v>
       </c>
       <c r="H17">
-        <v>0.51591461989999998</v>
+        <v>0.81742439710000003</v>
       </c>
       <c r="I17" s="1">
-        <v>0.4195576144</v>
+        <v>0.19366971899999999</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -33148,22 +33148,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>2.405633E-4</v>
+        <v>9.9459299999999995E-6</v>
       </c>
       <c r="E18">
-        <v>0.70610914840000005</v>
+        <v>0.74319879099999997</v>
       </c>
       <c r="F18" s="1">
-        <v>7.3281605E-2</v>
+        <v>2.3255435500000001E-2</v>
       </c>
       <c r="G18">
-        <v>3.7730228999999999E-3</v>
+        <v>1.1493482100000001E-2</v>
       </c>
       <c r="H18">
-        <v>0.94458804789999995</v>
+        <v>0.79684174760000004</v>
       </c>
       <c r="I18" s="1">
-        <v>0.49538347980000003</v>
+        <v>0.27037421319999999</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -33192,22 +33192,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>4.3337100000000002E-21</v>
+        <v>1.2168899999999999E-27</v>
       </c>
       <c r="E19">
-        <v>0.34516215560000002</v>
+        <v>0.38573610089999999</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0684999999999999E-7</v>
+        <v>5.6411199999999998E-6</v>
       </c>
       <c r="G19">
-        <v>0.249942103</v>
+        <v>0.2147777739</v>
       </c>
       <c r="H19">
-        <v>0.51549658119999997</v>
+        <v>0.32208808350000001</v>
       </c>
       <c r="I19">
-        <v>0.34618026210000002</v>
+        <v>0.35794182359999999</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -33236,22 +33236,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0.29159668700000002</v>
+        <v>9.2325053000000004E-2</v>
       </c>
       <c r="E20">
-        <v>0.61570688009999996</v>
+        <v>0.59010519130000005</v>
       </c>
       <c r="F20" s="1">
-        <v>0.42980635979999998</v>
+        <v>0.4834071855</v>
       </c>
       <c r="G20">
-        <v>0.94803579110000002</v>
+        <v>0.32801970650000001</v>
       </c>
       <c r="H20">
-        <v>0.59380144729999995</v>
+        <v>0.71353727680000001</v>
       </c>
       <c r="I20">
-        <v>0.8742729159</v>
+        <v>0.77361557130000003</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -33280,22 +33280,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.7283335200000003E-2</v>
+        <v>2.5682239799999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.59237288840000002</v>
+        <v>0.82994058729999998</v>
       </c>
       <c r="F21" s="1">
-        <v>0.23197642500000001</v>
+        <v>7.9388196999999994E-2</v>
       </c>
       <c r="G21">
-        <v>0.55283804059999997</v>
+        <v>0.24810018959999999</v>
       </c>
       <c r="H21">
-        <v>6.9329405699999999E-2</v>
+        <v>0.2201658812</v>
       </c>
       <c r="I21">
-        <v>0.56581678790000001</v>
+        <v>0.37806792620000002</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -33323,23 +33323,23 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.70359943899999999</v>
-      </c>
-      <c r="E22">
-        <v>0.56517946779999995</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.2080311544</v>
-      </c>
-      <c r="G22">
-        <v>0.69444712320000002</v>
-      </c>
-      <c r="H22">
-        <v>4.1637993700000001E-2</v>
-      </c>
-      <c r="I22">
-        <v>0.58721561609999995</v>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -33368,22 +33368,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.62928646570000002</v>
+        <v>2.1090400000000001E-5</v>
       </c>
       <c r="E23">
-        <v>0.59261109280000002</v>
+        <v>0.55775383329999995</v>
       </c>
       <c r="F23" s="1">
-        <v>0.1083025626</v>
+        <v>0.12770185000000001</v>
       </c>
       <c r="G23">
-        <v>0.58304149090000001</v>
+        <v>0.50846316489999999</v>
       </c>
       <c r="H23">
-        <v>0.25031090010000001</v>
+        <v>0.37355399389999999</v>
       </c>
       <c r="I23">
-        <v>0.70995006220000001</v>
+        <v>0.71210097049999999</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -33412,25 +33412,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.92491264569999998</v>
+        <v>3.68688E-22</v>
       </c>
       <c r="E24">
-        <v>0.3670672472</v>
+        <v>0.43741125320000002</v>
       </c>
       <c r="F24" s="1">
-        <v>9.8861534000000001E-3</v>
+        <v>4.1811799999999998E-5</v>
       </c>
       <c r="G24">
-        <v>0.11200602210000001</v>
+        <v>0.63833049679999998</v>
       </c>
       <c r="H24">
-        <v>0.50413938800000002</v>
+        <v>0.64005329219999996</v>
       </c>
       <c r="I24" s="1">
-        <v>0.48936509950000001</v>
+        <v>0.77815904940000002</v>
       </c>
       <c r="J24">
-        <v>0.3906262995</v>
+        <v>0.81167979040000005</v>
       </c>
       <c r="K24" t="s">
         <v>1</v>
@@ -33456,25 +33456,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.58967453540000003</v>
+        <v>0.91385790639999998</v>
       </c>
       <c r="E25">
-        <v>0.63897690689999997</v>
+        <v>0.67220893989999997</v>
       </c>
       <c r="F25" s="1">
-        <v>0.1947919407</v>
+        <v>1.04360346E-2</v>
       </c>
       <c r="G25">
-        <v>0.2231141989</v>
+        <v>0.96010413859999999</v>
       </c>
       <c r="H25">
-        <v>0.72373384080000003</v>
+        <v>0.70075204589999995</v>
       </c>
       <c r="I25">
-        <v>0.70083128400000005</v>
+        <v>0.98590002659999998</v>
       </c>
       <c r="J25">
-        <v>0.79516817969999998</v>
+        <v>0.4220913</v>
       </c>
       <c r="K25" t="s">
         <v>1</v>
@@ -33500,25 +33500,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0072100000000001E-14</v>
+        <v>6.6938679000000001E-2</v>
       </c>
       <c r="E26">
-        <v>0.37729403290000002</v>
+        <v>0.6770429389</v>
       </c>
       <c r="F26" s="1">
-        <v>3.2522580000000001E-4</v>
+        <v>0.1002572956</v>
       </c>
       <c r="G26">
-        <v>0.22979105790000001</v>
+        <v>0.8652167905</v>
       </c>
       <c r="H26">
-        <v>0.39024460399999999</v>
+        <v>0.58522784250000004</v>
       </c>
       <c r="I26">
-        <v>0.65762771389999997</v>
+        <v>0.33460988060000002</v>
       </c>
       <c r="J26">
-        <v>0.2943193871</v>
+        <v>0.32867573010000001</v>
       </c>
       <c r="K26" t="s">
         <v>1</v>
@@ -33544,25 +33544,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>8.9303880099999997E-2</v>
+        <v>7.1004699999999999E-11</v>
       </c>
       <c r="E27">
-        <v>0.76435419689999995</v>
+        <v>0.26907873269999999</v>
       </c>
       <c r="F27" s="1">
-        <v>0.24420393539999999</v>
+        <v>3.8868147700000001E-2</v>
       </c>
       <c r="G27">
-        <v>0.98175346389999996</v>
+        <v>1.5064608E-2</v>
       </c>
       <c r="H27">
-        <v>0.1176264405</v>
+        <v>0.98314395929999998</v>
       </c>
       <c r="I27">
-        <v>0.52704999549999998</v>
+        <v>0.16961706139999999</v>
       </c>
       <c r="J27">
-        <v>0.62321175250000005</v>
+        <v>8.0330449100000006E-2</v>
       </c>
       <c r="K27" t="s">
         <v>1</v>
@@ -33588,25 +33588,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>0.39700207990000003</v>
+        <v>6.0247613999999998E-2</v>
       </c>
       <c r="E28">
-        <v>0.55230792299999998</v>
+        <v>0.75387329179999996</v>
       </c>
       <c r="F28" s="1">
-        <v>0.21812156960000001</v>
+        <v>0.2264044767</v>
       </c>
       <c r="G28">
-        <v>0.57504149819999995</v>
+        <v>0.31745091800000003</v>
       </c>
       <c r="H28">
-        <v>7.48883937E-2</v>
+        <v>0.2456944703</v>
       </c>
       <c r="I28">
-        <v>0.59623196850000004</v>
+        <v>0.49711555860000001</v>
       </c>
       <c r="J28">
-        <v>0.98627925329999999</v>
+        <v>0.88214263370000001</v>
       </c>
       <c r="K28" t="s">
         <v>1</v>
@@ -33632,25 +33632,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>9.2017217000000002E-3</v>
+        <v>0.53151740830000005</v>
       </c>
       <c r="E29">
-        <v>0.82309676890000005</v>
+        <v>0.3249622358</v>
       </c>
       <c r="F29" s="1">
-        <v>6.3977535200000005E-2</v>
+        <v>0.69146041079999998</v>
       </c>
       <c r="G29">
-        <v>0.85609447299999997</v>
+        <v>0.1182153148</v>
       </c>
       <c r="H29">
-        <v>0.86091899930000004</v>
+        <v>0.92559948069999998</v>
       </c>
       <c r="I29">
-        <v>0.97286818019999999</v>
+        <v>0.18141426359999999</v>
       </c>
       <c r="J29">
-        <v>0.79691834130000005</v>
+        <v>0.15260616290000001</v>
       </c>
       <c r="K29" t="s">
         <v>1</v>
@@ -33676,25 +33676,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>0.28518351359999999</v>
+        <v>7.3582569299999998E-2</v>
       </c>
       <c r="E30">
-        <v>0.57172621540000002</v>
+        <v>0.35386794570000002</v>
       </c>
       <c r="F30" s="1">
-        <v>0.63562814889999997</v>
+        <v>0.597065807</v>
       </c>
       <c r="G30">
-        <v>0.96434055559999998</v>
+        <v>0.1700294567</v>
       </c>
       <c r="H30">
-        <v>0.88765506419999995</v>
+        <v>0.8446974921</v>
       </c>
       <c r="I30">
-        <v>0.95211069410000004</v>
+        <v>0.2425531152</v>
       </c>
       <c r="J30">
-        <v>0.93648790969999995</v>
+        <v>0.2220512352</v>
       </c>
       <c r="K30" t="s">
         <v>1</v>

--- a/LaborShortage/pqselectionresult.xlsx
+++ b/LaborShortage/pqselectionresult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA420E2B-1529-4494-BC8F-414D59A276BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DEE6D-C889-4154-98DF-550EE7CC60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="13">
   <si>
     <t>.</t>
   </si>
@@ -647,88 +647,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.35664229019999999</c:v>
+                  <c:v>0.42224595450000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26161757759999998</c:v>
+                  <c:v>0.37983731999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29005203730000001</c:v>
+                  <c:v>0.37460528990000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73457667680000005</c:v>
+                  <c:v>0.492108979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59935241279999996</c:v>
+                  <c:v>0.50799475120000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90240193639999999</c:v>
+                  <c:v>0.86957473210000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55871521540000002</c:v>
+                  <c:v>0.50934735470000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34727503300000001</c:v>
+                  <c:v>0.42060357599999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34083594560000002</c:v>
+                  <c:v>0.4162407581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5052740174</c:v>
+                  <c:v>2.1922466630000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46290242139999999</c:v>
+                  <c:v>0.60499677210000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50185547490000004</c:v>
+                  <c:v>0.52066650820000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75145849220000005</c:v>
+                  <c:v>0.51100912389999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64068856200000002</c:v>
+                  <c:v>0.4749488624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5179119163</c:v>
+                  <c:v>-1.0406779999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74319879099999997</c:v>
+                  <c:v>0.47478716069999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38573610089999999</c:v>
+                  <c:v>0.459332766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59010519130000005</c:v>
+                  <c:v>0.56399489629999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82994058729999998</c:v>
+                  <c:v>0.53923831950000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.4792832474</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55775383329999995</c:v>
+                  <c:v>0.51101715069999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43741125320000002</c:v>
+                  <c:v>0.45536927659999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67220893989999997</c:v>
+                  <c:v>0.62692512170000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6770429389</c:v>
+                  <c:v>0.6464316202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26907873269999999</c:v>
+                  <c:v>0.57976229310000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.75387329179999996</c:v>
+                  <c:v>0.53052758010000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3249622358</c:v>
+                  <c:v>0.53164705349999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.35386794570000002</c:v>
+                  <c:v>0.4961556291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21441,10 +21441,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.26161757759999998</v>
+        <v>0.37460528990000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -32435,7 +32435,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32497,16 +32497,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4.6121100000000004E-34</v>
+        <v>7.93197E-33</v>
       </c>
       <c r="E3">
-        <v>0.35664229019999999</v>
+        <v>0.42224595450000002</v>
       </c>
       <c r="F3" s="1">
-        <v>6.4179500000000001E-6</v>
+        <v>2.74164E-13</v>
       </c>
       <c r="G3" s="1">
-        <v>1.3944399999999999E-11</v>
+        <v>9.7548799999999998E-8</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -32538,16 +32538,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2269000000000001E-8</v>
+        <v>2.5736679999999998E-4</v>
       </c>
       <c r="E4">
-        <v>0.26161757759999998</v>
+        <v>0.37983731999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>8.1795309499999996E-2</v>
+        <v>1.3690611300000001E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>4.1372899999999997E-8</v>
+        <v>8.1784900000000001E-7</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -32579,16 +32579,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0932699999999999E-24</v>
+        <v>7.1413010000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.29005203730000001</v>
+        <v>0.37460528990000003</v>
       </c>
       <c r="F5" s="1">
-        <v>1.4304987999999999E-3</v>
+        <v>6.2838102399999998E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>5.4350934000000004E-3</v>
+        <v>1.9470779999999999E-4</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -32620,16 +32620,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>7.726934E-4</v>
+        <v>5.5865299999999997E-16</v>
       </c>
       <c r="E6">
-        <v>0.73457667680000005</v>
+        <v>0.492108979</v>
       </c>
       <c r="F6" s="1">
-        <v>5.970044E-2</v>
+        <v>3.5662399999999998E-7</v>
       </c>
       <c r="G6" s="1">
-        <v>2.9257599999999999E-41</v>
+        <v>1.41704742E-2</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -32664,16 +32664,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1.118422E-4</v>
+        <v>6.6204200000000002E-21</v>
       </c>
       <c r="E7">
-        <v>0.59935241279999996</v>
+        <v>0.50799475120000004</v>
       </c>
       <c r="F7" s="1">
-        <v>8.8514895999999996E-2</v>
+        <v>2.1770999999999999E-9</v>
       </c>
       <c r="G7" s="1">
-        <v>9.4690509999999998E-4</v>
+        <v>4.1331132100000001E-2</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -32708,16 +32708,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>3.3007960699999998E-2</v>
+        <v>0.9460341042</v>
       </c>
       <c r="E8">
-        <v>0.90240193639999999</v>
+        <v>0.86957473210000003</v>
       </c>
       <c r="F8" s="1">
-        <v>0.29561288530000002</v>
+        <v>0.89155494859999995</v>
       </c>
       <c r="G8" s="1">
-        <v>6.3680599999999997E-21</v>
+        <v>0.21110500900000001</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -32752,16 +32752,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.3392299999999999E-12</v>
+        <v>2.7523799999999999E-37</v>
       </c>
       <c r="E9">
-        <v>0.55871521540000002</v>
+        <v>0.50934735470000003</v>
       </c>
       <c r="F9" s="1">
-        <v>5.6757481E-3</v>
+        <v>1.56648E-17</v>
       </c>
       <c r="G9" s="1">
-        <v>5.8461123400000002E-2</v>
+        <v>0.52026435449999997</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -32796,19 +32796,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.6524700000000001E-14</v>
+        <v>5.0208900000000001E-20</v>
       </c>
       <c r="E10">
-        <v>0.34727503300000001</v>
+        <v>0.42060357599999998</v>
       </c>
       <c r="F10" s="1">
-        <v>3.8664461E-3</v>
+        <v>1.8989400000000001E-9</v>
       </c>
       <c r="G10" s="1">
-        <v>0.3775880989</v>
+        <v>0.16110985850000001</v>
       </c>
       <c r="H10">
-        <v>0.92757978929999996</v>
+        <v>0.94707045410000001</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -32840,19 +32840,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.87970058009999996</v>
+        <v>7.4725700000000005E-14</v>
       </c>
       <c r="E11">
-        <v>0.34083594560000002</v>
+        <v>0.4162407581</v>
       </c>
       <c r="F11" s="1">
-        <v>3.01947E-7</v>
+        <v>1.2996100000000001E-7</v>
       </c>
       <c r="G11">
-        <v>0.80956238079999998</v>
+        <v>0.55854113790000004</v>
       </c>
       <c r="H11">
-        <v>0.43737036969999998</v>
+        <v>0.52733263399999997</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -32884,19 +32884,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1.3096694799999999E-2</v>
+        <v>0.94876357219999996</v>
       </c>
       <c r="E12">
-        <v>0.5052740174</v>
+        <v>2.1922466630000002</v>
       </c>
       <c r="F12" s="1">
-        <v>0.20388350390000001</v>
+        <v>0.75577558909999998</v>
       </c>
       <c r="G12">
-        <v>2.47047143E-2</v>
+        <v>5.7803667000000001E-3</v>
       </c>
       <c r="H12">
-        <v>0.18869086560000001</v>
+        <v>0.1887137867</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -32928,19 +32928,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.36622332169999999</v>
+        <v>0.78320982559999996</v>
       </c>
       <c r="E13">
-        <v>0.46290242139999999</v>
+        <v>0.60499677210000002</v>
       </c>
       <c r="F13" s="1">
-        <v>0.78353086679999995</v>
+        <v>0.33834146799999998</v>
       </c>
       <c r="G13">
-        <v>0.69461266200000005</v>
+        <v>0.69051295189999995</v>
       </c>
       <c r="H13">
-        <v>0.98719307730000005</v>
+        <v>0.67442868430000003</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -32972,19 +32972,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>0.88266885799999995</v>
+        <v>0.74677156030000003</v>
       </c>
       <c r="E14">
-        <v>0.50185547490000004</v>
+        <v>0.52066650820000004</v>
       </c>
       <c r="F14" s="1">
-        <v>0.79073823460000003</v>
+        <v>7.1306301000000002E-3</v>
       </c>
       <c r="G14">
-        <v>0.5003720921</v>
+        <v>0.90601920010000003</v>
       </c>
       <c r="H14">
-        <v>0.79759739799999996</v>
+        <v>0.1908313995</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>7.2594128000000001E-3</v>
+        <v>1.41945E-6</v>
       </c>
       <c r="E15">
-        <v>0.75145849220000005</v>
+        <v>0.51100912389999997</v>
       </c>
       <c r="F15" s="1">
-        <v>0.1424354296</v>
+        <v>5.1102519999999998E-4</v>
       </c>
       <c r="G15">
-        <v>0.86367134369999998</v>
+        <v>0.64098485019999996</v>
       </c>
       <c r="H15">
-        <v>0.49782962089999999</v>
+        <v>5.6861931499999997E-2</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -33060,19 +33060,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.35355036429999998</v>
+        <v>2.8851399999999999E-7</v>
       </c>
       <c r="E16">
-        <v>0.64068856200000002</v>
+        <v>0.4749488624</v>
       </c>
       <c r="F16" s="1">
-        <v>0.81236794879999996</v>
+        <v>6.4391399999999999E-4</v>
       </c>
       <c r="G16">
-        <v>0.80251463249999999</v>
+        <v>0.55458569820000003</v>
       </c>
       <c r="H16">
-        <v>0.74718585479999999</v>
+        <v>4.94269783E-2</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -33104,22 +33104,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.93989214109999997</v>
+        <v>0.26931484189999999</v>
       </c>
       <c r="E17">
-        <v>0.5179119163</v>
+        <v>-1.0406779999999999E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>2.3620351099999999E-2</v>
+        <v>0.9671906173</v>
       </c>
       <c r="G17">
-        <v>0.46115813979999998</v>
+        <v>0.95734285379999995</v>
       </c>
       <c r="H17">
-        <v>0.81742439710000003</v>
+        <v>3.4603606199999998E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>0.19366971899999999</v>
+        <v>5.9930810600000002E-2</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -33148,22 +33148,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>9.9459299999999995E-6</v>
+        <v>0.58990280350000002</v>
       </c>
       <c r="E18">
-        <v>0.74319879099999997</v>
+        <v>0.47478716069999999</v>
       </c>
       <c r="F18" s="1">
-        <v>2.3255435500000001E-2</v>
+        <v>0.4454137588</v>
       </c>
       <c r="G18">
-        <v>1.1493482100000001E-2</v>
+        <v>0.62879480840000002</v>
       </c>
       <c r="H18">
-        <v>0.79684174760000004</v>
+        <v>0.98400861390000005</v>
       </c>
       <c r="I18" s="1">
-        <v>0.27037421319999999</v>
+        <v>0.59165588899999999</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -33192,22 +33192,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1.2168899999999999E-27</v>
+        <v>1.7539700000000001E-10</v>
       </c>
       <c r="E19">
-        <v>0.38573610089999999</v>
+        <v>0.459332766</v>
       </c>
       <c r="F19" s="1">
-        <v>5.6411199999999998E-6</v>
+        <v>4.1907299999999999E-6</v>
       </c>
       <c r="G19">
-        <v>0.2147777739</v>
+        <v>0.61021276290000004</v>
       </c>
       <c r="H19">
-        <v>0.32208808350000001</v>
+        <v>0.65306248339999995</v>
       </c>
       <c r="I19">
-        <v>0.35794182359999999</v>
+        <v>0.8952628627</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -33236,22 +33236,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>9.2325053000000004E-2</v>
+        <v>0.52243812820000002</v>
       </c>
       <c r="E20">
-        <v>0.59010519130000005</v>
+        <v>0.56399489629999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.4834071855</v>
+        <v>0.68432883700000002</v>
       </c>
       <c r="G20">
-        <v>0.32801970650000001</v>
+        <v>0.88768885249999996</v>
       </c>
       <c r="H20">
-        <v>0.71353727680000001</v>
+        <v>0.7918742205</v>
       </c>
       <c r="I20">
-        <v>0.77361557130000003</v>
+        <v>0.85209091410000004</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -33280,22 +33280,22 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>2.5682239799999999E-2</v>
+        <v>7.9023730000000007E-3</v>
       </c>
       <c r="E21">
-        <v>0.82994058729999998</v>
+        <v>0.53923831950000001</v>
       </c>
       <c r="F21" s="1">
-        <v>7.9388196999999994E-2</v>
+        <v>4.1398995600000002E-2</v>
       </c>
       <c r="G21">
-        <v>0.24810018959999999</v>
+        <v>0.98632270030000002</v>
       </c>
       <c r="H21">
-        <v>0.2201658812</v>
+        <v>0.1649636629</v>
       </c>
       <c r="I21">
-        <v>0.37806792620000002</v>
+        <v>0.73698282569999995</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -33323,23 +33323,23 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>0</v>
+      <c r="D22" s="1">
+        <v>8.1785910000000002E-4</v>
+      </c>
+      <c r="E22">
+        <v>0.4792832474</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.9034538399999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.97756347769999996</v>
+      </c>
+      <c r="H22">
+        <v>2.3503003099999999E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.82566521110000002</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -33368,22 +33368,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>2.1090400000000001E-5</v>
+        <v>1.53276067E-2</v>
       </c>
       <c r="E23">
-        <v>0.55775383329999995</v>
+        <v>0.51101715069999998</v>
       </c>
       <c r="F23" s="1">
-        <v>0.12770185000000001</v>
+        <v>6.4808993999999995E-2</v>
       </c>
       <c r="G23">
-        <v>0.50846316489999999</v>
+        <v>0.96025841519999999</v>
       </c>
       <c r="H23">
-        <v>0.37355399389999999</v>
+        <v>0.1288649362</v>
       </c>
       <c r="I23">
-        <v>0.71210097049999999</v>
+        <v>0.94474538240000006</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -33412,25 +33412,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>3.68688E-22</v>
+        <v>0.94869762319999995</v>
       </c>
       <c r="E24">
-        <v>0.43741125320000002</v>
+        <v>0.45536927659999998</v>
       </c>
       <c r="F24" s="1">
-        <v>4.1811799999999998E-5</v>
+        <v>2.6152860000000001E-3</v>
       </c>
       <c r="G24">
-        <v>0.63833049679999998</v>
+        <v>0.147850434</v>
       </c>
       <c r="H24">
-        <v>0.64005329219999996</v>
+        <v>0.74147833299999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.77815904940000002</v>
+        <v>0.62999881729999996</v>
       </c>
       <c r="J24">
-        <v>0.81167979040000005</v>
+        <v>0.41509092069999998</v>
       </c>
       <c r="K24" t="s">
         <v>1</v>
@@ -33456,25 +33456,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.91385790639999998</v>
+        <v>0.9157017542</v>
       </c>
       <c r="E25">
-        <v>0.67220893989999997</v>
+        <v>0.62692512170000003</v>
       </c>
       <c r="F25" s="1">
-        <v>1.04360346E-2</v>
+        <v>0.20616712509999999</v>
       </c>
       <c r="G25">
-        <v>0.96010413859999999</v>
+        <v>0.36057047599999997</v>
       </c>
       <c r="H25">
-        <v>0.70075204589999995</v>
+        <v>0.76486345099999997</v>
       </c>
       <c r="I25">
-        <v>0.98590002659999998</v>
+        <v>0.77129975959999997</v>
       </c>
       <c r="J25">
-        <v>0.4220913</v>
+        <v>0.96233210469999997</v>
       </c>
       <c r="K25" t="s">
         <v>1</v>
@@ -33500,25 +33500,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>6.6938679000000001E-2</v>
+        <v>0.37150486989999998</v>
       </c>
       <c r="E26">
-        <v>0.6770429389</v>
+        <v>0.6464316202</v>
       </c>
       <c r="F26" s="1">
-        <v>0.1002572956</v>
+        <v>0.39207972499999999</v>
       </c>
       <c r="G26">
-        <v>0.8652167905</v>
+        <v>0.86939651409999996</v>
       </c>
       <c r="H26">
-        <v>0.58522784250000004</v>
+        <v>0.74246812880000002</v>
       </c>
       <c r="I26">
-        <v>0.33460988060000002</v>
+        <v>0.68332256049999995</v>
       </c>
       <c r="J26">
-        <v>0.32867573010000001</v>
+        <v>0.67627713229999997</v>
       </c>
       <c r="K26" t="s">
         <v>1</v>
@@ -33544,25 +33544,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>7.1004699999999999E-11</v>
+        <v>0.40838631450000001</v>
       </c>
       <c r="E27">
-        <v>0.26907873269999999</v>
+        <v>0.57976229310000005</v>
       </c>
       <c r="F27" s="1">
-        <v>3.8868147700000001E-2</v>
+        <v>0.45685435740000002</v>
       </c>
       <c r="G27">
-        <v>1.5064608E-2</v>
+        <v>0.7026902398</v>
       </c>
       <c r="H27">
-        <v>0.98314395929999998</v>
+        <v>0.39982086420000001</v>
       </c>
       <c r="I27">
-        <v>0.16961706139999999</v>
+        <v>0.97168837100000005</v>
       </c>
       <c r="J27">
-        <v>8.0330449100000006E-2</v>
+        <v>0.75920656040000001</v>
       </c>
       <c r="K27" t="s">
         <v>1</v>
@@ -33588,25 +33588,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>6.0247613999999998E-2</v>
+        <v>6.0006860000000003E-4</v>
       </c>
       <c r="E28">
-        <v>0.75387329179999996</v>
+        <v>0.53052758010000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0.2264044767</v>
+        <v>1.4524393199999999E-2</v>
       </c>
       <c r="G28">
-        <v>0.31745091800000003</v>
+        <v>0.99613342010000006</v>
       </c>
       <c r="H28">
-        <v>0.2456944703</v>
+        <v>0.12723602680000001</v>
       </c>
       <c r="I28">
-        <v>0.49711555860000001</v>
+        <v>0.70308378010000006</v>
       </c>
       <c r="J28">
-        <v>0.88214263370000001</v>
+        <v>0.87481242299999995</v>
       </c>
       <c r="K28" t="s">
         <v>1</v>
@@ -33632,25 +33632,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.53151740830000005</v>
+        <v>0.47520220089999998</v>
       </c>
       <c r="E29">
-        <v>0.3249622358</v>
+        <v>0.53164705349999997</v>
       </c>
       <c r="F29" s="1">
-        <v>0.69146041079999998</v>
+        <v>5.0556393999999998E-2</v>
       </c>
       <c r="G29">
-        <v>0.1182153148</v>
+        <v>0.97758469029999995</v>
       </c>
       <c r="H29">
-        <v>0.92559948069999998</v>
+        <v>0.22761525930000001</v>
       </c>
       <c r="I29">
-        <v>0.18141426359999999</v>
+        <v>0.96101094279999999</v>
       </c>
       <c r="J29">
-        <v>0.15260616290000001</v>
+        <v>0.88943717529999999</v>
       </c>
       <c r="K29" t="s">
         <v>1</v>
@@ -33676,25 +33676,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>7.3582569299999998E-2</v>
+        <v>1.609665E-4</v>
       </c>
       <c r="E30">
-        <v>0.35386794570000002</v>
+        <v>0.4961556291</v>
       </c>
       <c r="F30" s="1">
-        <v>0.597065807</v>
+        <v>3.4921733000000003E-2</v>
       </c>
       <c r="G30">
-        <v>0.1700294567</v>
+        <v>0.64108972860000002</v>
       </c>
       <c r="H30">
-        <v>0.8446974921</v>
+        <v>0.50450929830000002</v>
       </c>
       <c r="I30">
-        <v>0.2425531152</v>
+        <v>0.55736999990000002</v>
       </c>
       <c r="J30">
-        <v>0.2220512352</v>
+        <v>0.92664950869999996</v>
       </c>
       <c r="K30" t="s">
         <v>1</v>

--- a/LaborShortage/pqselectionresult.xlsx
+++ b/LaborShortage/pqselectionresult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7624B541-BF87-4C23-9BF1-9A9E63EB759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD1C461-B52A-43CF-A58C-9A664B6B5963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2130" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{54A8F1A8-9F19-46C5-81A5-03B08C1588E1}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="14">
   <si>
     <t>.</t>
   </si>
@@ -662,88 +662,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.29824552380000002</c:v>
+                  <c:v>0.32729866460000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2234088451</c:v>
+                  <c:v>0.25134862050000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6459619699999999E-2</c:v>
+                  <c:v>8.44000102E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64425164489999998</c:v>
+                  <c:v>0.45827823709999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44417757359999999</c:v>
+                  <c:v>0.48429194450000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46462037470000001</c:v>
+                  <c:v>0.59720009949999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46222014259999999</c:v>
+                  <c:v>0.55109911810000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2887445843</c:v>
+                  <c:v>0.3055083167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2994556089</c:v>
+                  <c:v>0.31978806830000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68210867679999998</c:v>
+                  <c:v>0.27499130659999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42100636559999999</c:v>
+                  <c:v>0.50828018360000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69228810070000002</c:v>
+                  <c:v>0.4409283826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58328116350000003</c:v>
+                  <c:v>0.4515090007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46903996409999998</c:v>
+                  <c:v>0.3868307762</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29589134490000002</c:v>
+                  <c:v>0.31233770350000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66806602339999999</c:v>
+                  <c:v>0.3002498039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3174393908</c:v>
+                  <c:v>0.49149207480000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69048980169999996</c:v>
+                  <c:v>0.47333623670000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56315098159999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51013203019999998</c:v>
+                  <c:v>0.41605443619999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56289247769999995</c:v>
+                  <c:v>0.50619564719999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33791453710000002</c:v>
+                  <c:v>0.3129584419</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56187024569999999</c:v>
+                  <c:v>0.38788576299999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.36087993429999998</c:v>
+                  <c:v>0.480797584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.67439922529999996</c:v>
+                  <c:v>1.39149037E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70274546540000005</c:v>
+                  <c:v>0.38041601829999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.62662977340000003</c:v>
+                  <c:v>0.55594825729999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.52737087000000005</c:v>
+                  <c:v>0.38458470169999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21429,7 +21429,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D2:D25"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21462,7 +21462,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.22340884499999999</v>
+        <v>0.32729866460000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -32456,7 +32456,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32518,16 +32518,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>2.77029E-23</v>
+        <v>1.1174050899999999E-2</v>
       </c>
       <c r="E3">
-        <v>0.29824552380000002</v>
+        <v>0.32729866460000001</v>
       </c>
       <c r="F3" s="1">
-        <v>7.4820100000000004E-6</v>
+        <v>6.2356000000000001E-7</v>
       </c>
       <c r="G3" s="1">
-        <v>1.31285E-7</v>
+        <v>9.7024100000000001E-8</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -32559,16 +32559,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>4.1373533000000004E-3</v>
+        <v>0.1211860194</v>
       </c>
       <c r="E4">
-        <v>0.2234088451</v>
+        <v>0.25134862050000001</v>
       </c>
       <c r="F4" s="1">
-        <v>0.22041537950000001</v>
+        <v>0.1182668518</v>
       </c>
       <c r="G4" s="1">
-        <v>5.3066600000000001E-6</v>
+        <v>7.0021899999999998E-6</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -32600,16 +32600,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.58067256899999997</v>
+        <v>0.26703108170000001</v>
       </c>
       <c r="E5">
-        <v>2.6459619699999999E-2</v>
+        <v>8.44000102E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.94273139120000005</v>
+        <v>0.80918749369999998</v>
       </c>
       <c r="G5" s="1">
-        <v>3.2363599999999999E-13</v>
+        <v>4.8274699999999998E-8</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -32641,16 +32641,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0040149E-3</v>
+        <v>0.92657774449999997</v>
       </c>
       <c r="E6">
-        <v>0.64425164489999998</v>
+        <v>0.45827823709999999</v>
       </c>
       <c r="F6" s="1">
-        <v>4.7216261699999998E-2</v>
+        <v>6.4688443200000001E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>1.40861E-22</v>
+        <v>2.38810224E-2</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -32685,16 +32685,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>4.7050699999999999E-8</v>
+        <v>0.92654034330000001</v>
       </c>
       <c r="E7">
-        <v>0.44417757359999999</v>
+        <v>0.48429194450000002</v>
       </c>
       <c r="F7" s="1">
-        <v>4.7394986000000002E-3</v>
+        <v>7.3000370300000006E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>1.55936344E-2</v>
+        <v>1.13510673E-2</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -32729,16 +32729,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>6.5352200000000005E-10</v>
+        <v>0.99952258469999999</v>
       </c>
       <c r="E8">
-        <v>0.46462037470000001</v>
+        <v>0.59720009949999997</v>
       </c>
       <c r="F8" s="1">
-        <v>6.6086650000000003E-4</v>
+        <v>0.81713263619999998</v>
       </c>
       <c r="G8" s="1">
-        <v>2.51644954E-2</v>
+        <v>1.74987E-39</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -32773,16 +32773,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>6.1173899999999999E-10</v>
+        <v>0.98993971759999999</v>
       </c>
       <c r="E9">
-        <v>0.46222014259999999</v>
+        <v>0.55109911810000001</v>
       </c>
       <c r="F9" s="1">
-        <v>1.4441055E-3</v>
+        <v>0.78961477749999998</v>
       </c>
       <c r="G9" s="1">
-        <v>7.7715628800000006E-2</v>
+        <v>0.64610217889999999</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -32817,19 +32817,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.2587900000000001E-6</v>
+        <v>0.18318111100000001</v>
       </c>
       <c r="E10">
-        <v>0.2887445843</v>
+        <v>0.3055083167</v>
       </c>
       <c r="F10" s="1">
-        <v>2.49679059E-2</v>
+        <v>2.29489981E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.32609512000000002</v>
+        <v>0.40383580450000001</v>
       </c>
       <c r="H10">
-        <v>0.96679353160000003</v>
+        <v>0.89163958499999996</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -32861,19 +32861,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1.4356000000000001E-22</v>
+        <v>1.4827396200000001E-2</v>
       </c>
       <c r="E11">
-        <v>0.2994556089</v>
+        <v>0.31978806830000001</v>
       </c>
       <c r="F11" s="1">
-        <v>2.0089299999999999E-6</v>
+        <v>9.6857400000000005E-6</v>
       </c>
       <c r="G11">
-        <v>0.99798413239999995</v>
+        <v>0.61339382809999998</v>
       </c>
       <c r="H11">
-        <v>0.20480087720000001</v>
+        <v>0.1748115123</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -32905,19 +32905,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5.3934830199999999E-2</v>
+        <v>0.14968081890000001</v>
       </c>
       <c r="E12">
-        <v>0.68210867679999998</v>
+        <v>0.27499130659999999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.32202397129999999</v>
+        <v>7.4638086899999997E-2</v>
       </c>
       <c r="G12">
-        <v>0.46723219040000002</v>
+        <v>0.49784129939999999</v>
       </c>
       <c r="H12">
-        <v>0.94794264780000004</v>
+        <v>0.47976025030000002</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -32949,19 +32949,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>0.6933250581</v>
+        <v>0.95425239780000004</v>
       </c>
       <c r="E13">
-        <v>0.42100636559999999</v>
+        <v>0.50828018360000005</v>
       </c>
       <c r="F13" s="1">
-        <v>0.69659139670000003</v>
+        <v>0.21774844830000001</v>
       </c>
       <c r="G13">
-        <v>0.54378706200000004</v>
+        <v>0.63788533839999995</v>
       </c>
       <c r="H13">
-        <v>0.83995226860000005</v>
+        <v>0.73374241429999998</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -32993,19 +32993,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0468253300000001E-2</v>
+        <v>0.90641656100000001</v>
       </c>
       <c r="E14">
-        <v>0.69228810070000002</v>
+        <v>0.4409283826</v>
       </c>
       <c r="F14" s="1">
-        <v>0.14737286590000001</v>
+        <v>0.32816477370000002</v>
       </c>
       <c r="G14">
-        <v>0.90991297360000001</v>
+        <v>0.86139473950000001</v>
       </c>
       <c r="H14">
-        <v>0.55694343270000002</v>
+        <v>0.72358006760000004</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -33037,19 +33037,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>0.35624197819999998</v>
+        <v>0.90915515899999999</v>
       </c>
       <c r="E15">
-        <v>0.58328116350000003</v>
+        <v>0.4515090007</v>
       </c>
       <c r="F15" s="1">
-        <v>0.70663224069999997</v>
+        <v>0.1542980199</v>
       </c>
       <c r="G15">
-        <v>0.96079359659999997</v>
+        <v>0.54249401070000003</v>
       </c>
       <c r="H15">
-        <v>0.84100999870000004</v>
+        <v>0.28866464089999999</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -33081,19 +33081,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1062348434</v>
+        <v>0.64209213409999999</v>
       </c>
       <c r="E16">
-        <v>0.46903996409999998</v>
+        <v>0.3868307762</v>
       </c>
       <c r="F16" s="1">
-        <v>0.7037367538</v>
+        <v>0.70134076280000002</v>
       </c>
       <c r="G16">
-        <v>0.95796081690000001</v>
+        <v>0.69668561910000004</v>
       </c>
       <c r="H16">
-        <v>0.39633248170000002</v>
+        <v>0.43403026430000002</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -33125,22 +33125,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.32798619449999999</v>
+        <v>0.25552728320000001</v>
       </c>
       <c r="E17">
-        <v>0.29589134490000002</v>
+        <v>0.31233770350000001</v>
       </c>
       <c r="F17" s="1">
-        <v>5.9473173999999998E-3</v>
+        <v>8.2892832000000007E-3</v>
       </c>
       <c r="G17">
-        <v>0.22262712640000001</v>
+        <v>0.24175907620000001</v>
       </c>
       <c r="H17">
-        <v>0.51261563560000001</v>
+        <v>0.37524915409999998</v>
       </c>
       <c r="I17" s="1">
-        <v>0.40851713810000001</v>
+        <v>0.54820701949999995</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -33169,22 +33169,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1.9426707000000001E-3</v>
+        <v>1.4168248899999999E-2</v>
       </c>
       <c r="E18">
-        <v>0.66806602339999999</v>
+        <v>0.3002498039</v>
       </c>
       <c r="F18" s="1">
-        <v>8.80578625E-2</v>
+        <v>1.7241770000000001E-4</v>
       </c>
       <c r="G18">
-        <v>3.216839E-3</v>
+        <v>0.89149694300000004</v>
       </c>
       <c r="H18">
-        <v>0.96582963769999997</v>
+        <v>0.69766952670000004</v>
       </c>
       <c r="I18" s="1">
-        <v>0.43486767869999998</v>
+        <v>0.34423276749999998</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -33213,22 +33213,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>1.14355E-15</v>
+        <v>0.98433221869999998</v>
       </c>
       <c r="E19">
-        <v>0.3174393908</v>
+        <v>0.49149207480000001</v>
       </c>
       <c r="F19" s="1">
-        <v>1.069934E-4</v>
+        <v>4.8001790699999998E-2</v>
       </c>
       <c r="G19">
-        <v>0.15617722249999999</v>
+        <v>0.34173242920000002</v>
       </c>
       <c r="H19">
-        <v>0.66532812770000005</v>
+        <v>0.48404344570000002</v>
       </c>
       <c r="I19">
-        <v>0.45539959629999999</v>
+        <v>0.50735554309999997</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>3.5377899999999999E-5</v>
+        <v>0.94681022000000004</v>
       </c>
       <c r="E20">
-        <v>0.69048980169999996</v>
+        <v>0.47333623670000002</v>
       </c>
       <c r="F20" s="1">
-        <v>7.6208914500000002E-2</v>
+        <v>1.11622496E-2</v>
       </c>
       <c r="G20">
-        <v>0.9780282991</v>
+        <v>0.37792274539999998</v>
       </c>
       <c r="H20">
-        <v>0.80349236570000004</v>
+        <v>0.68281937349999999</v>
       </c>
       <c r="I20">
-        <v>0.61654185179999998</v>
+        <v>0.82276257659999996</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -33300,23 +33300,23 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.25306169160000003</v>
-      </c>
-      <c r="E21">
-        <v>0.56315098159999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.21355450309999999</v>
-      </c>
-      <c r="G21">
-        <v>0.53157019009999995</v>
-      </c>
-      <c r="H21">
-        <v>0.1123584054</v>
-      </c>
-      <c r="I21">
-        <v>0.51599253759999997</v>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -33345,22 +33345,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>9.5640259300000002E-2</v>
+        <v>0.82212495860000001</v>
       </c>
       <c r="E22">
-        <v>0.51013203019999998</v>
+        <v>0.41605443619999999</v>
       </c>
       <c r="F22" s="1">
-        <v>0.3151378386</v>
+        <v>0.15747195759999999</v>
       </c>
       <c r="G22">
-        <v>0.69937344489999997</v>
+        <v>0.86036115639999999</v>
       </c>
       <c r="H22">
-        <v>5.4309821500000001E-2</v>
+        <v>0.93661614260000003</v>
       </c>
       <c r="I22">
-        <v>0.49896299039999997</v>
+        <v>0.87248628149999996</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -33389,22 +33389,22 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.88624964429999997</v>
+        <v>0.95490088429999997</v>
       </c>
       <c r="E23">
-        <v>0.56289247769999995</v>
+        <v>0.50619564719999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.14246288439999999</v>
+        <v>3.92096558E-2</v>
       </c>
       <c r="G23">
-        <v>0.59430494349999996</v>
+        <v>0.8230661104</v>
       </c>
       <c r="H23">
-        <v>0.2544825611</v>
+        <v>0.31551946450000001</v>
       </c>
       <c r="I23">
-        <v>0.62333447269999998</v>
+        <v>0.82104686019999995</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -33433,25 +33433,25 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0.94681592550000004</v>
+        <v>0.108717946</v>
       </c>
       <c r="E24">
-        <v>0.33791453710000002</v>
+        <v>0.3129584419</v>
       </c>
       <c r="F24" s="1">
-        <v>5.2219685999999998E-3</v>
+        <v>8.1363523999999996E-3</v>
       </c>
       <c r="G24">
-        <v>0.1659737892</v>
+        <v>0.36662164390000002</v>
       </c>
       <c r="H24">
-        <v>0.53326404199999999</v>
+        <v>0.74813539470000001</v>
       </c>
       <c r="I24" s="1">
-        <v>0.38242797109999999</v>
+        <v>0.26718433879999998</v>
       </c>
       <c r="J24">
-        <v>0.45212471240000002</v>
+        <v>0.98561573530000002</v>
       </c>
       <c r="K24" t="s">
         <v>1</v>
@@ -33477,25 +33477,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.59061460690000001</v>
+        <v>0.69844281460000002</v>
       </c>
       <c r="E25">
-        <v>0.56187024569999999</v>
+        <v>0.38788576299999999</v>
       </c>
       <c r="F25" s="1">
-        <v>0.22726021320000001</v>
+        <v>0.22200571180000001</v>
       </c>
       <c r="G25">
-        <v>0.23729523080000001</v>
+        <v>5.0721007000000002E-3</v>
       </c>
       <c r="H25">
-        <v>0.7252218614</v>
+        <v>0.70605615590000004</v>
       </c>
       <c r="I25">
-        <v>0.68947248949999995</v>
+        <v>0.76145644300000004</v>
       </c>
       <c r="J25">
-        <v>0.73232527629999999</v>
+        <v>0.53202987660000001</v>
       </c>
       <c r="K25" t="s">
         <v>1</v>
@@ -33521,25 +33521,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>2.7762000000000002E-10</v>
+        <v>0.98592669570000002</v>
       </c>
       <c r="E26">
-        <v>0.36087993429999998</v>
+        <v>0.480797584</v>
       </c>
       <c r="F26" s="1">
-        <v>1.0361713999999999E-3</v>
+        <v>3.2849800700000001E-2</v>
       </c>
       <c r="G26">
-        <v>9.3769889999999995E-2</v>
+        <v>0.2556536908</v>
       </c>
       <c r="H26">
-        <v>0.81760157639999997</v>
+        <v>0.8442618006</v>
       </c>
       <c r="I26">
-        <v>0.53785644249999998</v>
+        <v>0.38593197289999998</v>
       </c>
       <c r="J26">
-        <v>0.141915816</v>
+        <v>0.99176939600000003</v>
       </c>
       <c r="K26" t="s">
         <v>1</v>
@@ -33565,25 +33565,25 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1147082257</v>
+        <v>0.69074805549999996</v>
       </c>
       <c r="E27">
-        <v>0.67439922529999996</v>
+        <v>1.39149037E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>0.17608500799999999</v>
+        <v>0.99079866809999995</v>
       </c>
       <c r="G27">
-        <v>0.84684154860000005</v>
+        <v>0.36345972319999997</v>
       </c>
       <c r="H27">
-        <v>0.28327918810000002</v>
+        <v>0.6428444136</v>
       </c>
       <c r="I27">
-        <v>0.79082433249999995</v>
+        <v>0.98968445819999995</v>
       </c>
       <c r="J27">
-        <v>0.67178464630000001</v>
+        <v>0.58715494280000002</v>
       </c>
       <c r="K27" t="s">
         <v>1</v>
@@ -33609,25 +33609,25 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>0.64482695720000005</v>
+        <v>0.84017675579999995</v>
       </c>
       <c r="E28">
-        <v>0.70274546540000005</v>
+        <v>0.38041601829999999</v>
       </c>
       <c r="F28" s="1">
-        <v>9.4184230300000005E-2</v>
+        <v>0.49252179270000002</v>
       </c>
       <c r="G28">
-        <v>0.87126622840000001</v>
+        <v>0.83767498620000003</v>
       </c>
       <c r="H28">
-        <v>0.20138359880000001</v>
+        <v>0.45162364310000003</v>
       </c>
       <c r="I28">
-        <v>0.90986465500000002</v>
+        <v>0.75375094620000005</v>
       </c>
       <c r="J28">
-        <v>0.85585163919999996</v>
+        <v>0.88691316850000002</v>
       </c>
       <c r="K28" t="s">
         <v>1</v>
@@ -33653,25 +33653,25 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0.6450222149</v>
+        <v>0.88812848990000004</v>
       </c>
       <c r="E29">
-        <v>0.62662977340000003</v>
+        <v>0.55594825729999997</v>
       </c>
       <c r="F29" s="1">
-        <v>0.40726575329999998</v>
+        <v>0.15320054590000001</v>
       </c>
       <c r="G29">
-        <v>0.922731352</v>
+        <v>0.99701048520000002</v>
       </c>
       <c r="H29">
-        <v>0.66535029189999995</v>
+        <v>0.42024047780000001</v>
       </c>
       <c r="I29">
-        <v>0.8505626543</v>
+        <v>0.85529153349999998</v>
       </c>
       <c r="J29">
-        <v>0.96129212689999999</v>
+        <v>0.55778116359999996</v>
       </c>
       <c r="K29" t="s">
         <v>1</v>
@@ -33697,25 +33697,25 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>0.4635047457</v>
+        <v>0.99649269029999998</v>
       </c>
       <c r="E30">
-        <v>0.52737087000000005</v>
+        <v>0.38458470169999998</v>
       </c>
       <c r="F30" s="1">
-        <v>0.57924713839999997</v>
+        <v>0.96473810319999997</v>
       </c>
       <c r="G30">
-        <v>0.93887495539999999</v>
+        <v>0.98813306300000003</v>
       </c>
       <c r="H30">
-        <v>0.83956414899999998</v>
+        <v>0.9730127086</v>
       </c>
       <c r="I30">
-        <v>0.92473346670000001</v>
+        <v>0.93882882030000003</v>
       </c>
       <c r="J30">
-        <v>0.89972286079999997</v>
+        <v>0.89360290340000004</v>
       </c>
       <c r="K30" t="s">
         <v>1</v>
